--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_10.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_10.xlsx
@@ -508,148 +508,148 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_0</t>
+          <t>model_1_10_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9993481901319492</v>
+        <v>0.9361447887870777</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8264873451700013</v>
+        <v>0.7296960598854365</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8156311629303641</v>
+        <v>0.6355324405913716</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9995684522490338</v>
+        <v>0.8412636655777798</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002713175977020252</v>
+        <v>0.2657990214056806</v>
       </c>
       <c r="G2" t="n">
-        <v>1.160279921800513</v>
+        <v>1.807523692181285</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6594766398786871</v>
+        <v>1.303679326961341</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002956817609116303</v>
+        <v>0.5330988834519581</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1086634215745959</v>
+        <v>1.363064701365891</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0520881558227996</v>
+        <v>0.5155570011217776</v>
       </c>
       <c r="L2" t="n">
-        <v>1.041715831555251</v>
+        <v>0.9130482230292123</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05290849220795568</v>
+        <v>0.5236765085215199</v>
       </c>
       <c r="N2" t="n">
-        <v>141.8192707660893</v>
+        <v>36.65002962880795</v>
       </c>
       <c r="O2" t="n">
-        <v>283.1544433093057</v>
+        <v>73.61461321703376</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_1</t>
+          <t>model_1_10_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9993565811412589</v>
+        <v>0.9356499945164485</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8262427582112538</v>
+        <v>0.7269569242646596</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8156438725124034</v>
+        <v>0.6479117924648301</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9995327730543775</v>
+        <v>0.8505390949060599</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002678248176755314</v>
+        <v>0.2678586157666145</v>
       </c>
       <c r="G3" t="n">
-        <v>1.161915475919876</v>
+        <v>1.82584030468998</v>
       </c>
       <c r="H3" t="n">
-        <v>0.659431178440676</v>
+        <v>1.259399103106043</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003201279249346317</v>
+        <v>0.5019483530050893</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1066489166638707</v>
+        <v>1.354498976294771</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05175179394721804</v>
+        <v>0.5175505924705472</v>
       </c>
       <c r="L3" t="n">
-        <v>1.041178806959429</v>
+        <v>0.9123744606181426</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05256683296907224</v>
+        <v>0.5257014969411724</v>
       </c>
       <c r="N3" t="n">
-        <v>141.8451847271631</v>
+        <v>36.63459198157206</v>
       </c>
       <c r="O3" t="n">
-        <v>283.1803572703795</v>
+        <v>73.59917556979788</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_2</t>
+          <t>model_1_10_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9993720514275153</v>
+        <v>0.9355714078530123</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8253602706771536</v>
+        <v>0.7267740990110994</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8165921174729746</v>
+        <v>0.6488993909208813</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9994331647048759</v>
+        <v>0.851251671621259</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002613852697205728</v>
+        <v>0.2681857348511828</v>
       </c>
       <c r="G4" t="n">
-        <v>1.167816674123887</v>
+        <v>1.827062858002371</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6560393611991151</v>
+        <v>1.255866520692996</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003883761596113325</v>
+        <v>0.4995552408507159</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1099470619034649</v>
+        <v>1.35363988300945</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05112585155482232</v>
+        <v>0.5178665222344294</v>
       </c>
       <c r="L4" t="n">
-        <v>1.040188708639022</v>
+        <v>0.9122674489913359</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05193103260970912</v>
+        <v>0.5260224022830219</v>
       </c>
       <c r="N4" t="n">
-        <v>141.8938600337154</v>
+        <v>36.6321509960469</v>
       </c>
       <c r="O4" t="n">
-        <v>283.2290325769318</v>
+        <v>73.59673458427272</v>
       </c>
     </row>
     <row r="5">
@@ -659,340 +659,340 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999557598621354</v>
+        <v>0.9345319194894817</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8249511475681908</v>
+        <v>0.7248540224849593</v>
       </c>
       <c r="D5" t="n">
-        <v>0.816424046907345</v>
+        <v>0.657820787554979</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9991843876067039</v>
+        <v>0.8573335686645517</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001841507549329868</v>
+        <v>0.2725126329154257</v>
       </c>
       <c r="G5" t="n">
-        <v>1.170552482237359</v>
+        <v>1.839902418573809</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6566405398670805</v>
+        <v>1.223955202225128</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005588297196107705</v>
+        <v>0.4791298446435373</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07257332814515288</v>
+        <v>1.345897606784658</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04291279004364396</v>
+        <v>0.5220274254437459</v>
       </c>
       <c r="L5" t="n">
-        <v>1.028313688233347</v>
+        <v>0.9108519754750388</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04358862358977914</v>
+        <v>0.5302488355585079</v>
       </c>
       <c r="N5" t="n">
-        <v>142.5943414450658</v>
+        <v>36.60014061326147</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9295139882822</v>
+        <v>73.56472420148729</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_7</t>
+          <t>model_1_10_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9995581471973484</v>
+        <v>0.9338593136278659</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8248804932718536</v>
+        <v>0.7238302855133775</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8163723474278748</v>
+        <v>0.6617466510978078</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9991765106973737</v>
+        <v>0.8597856034343847</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001839224087107871</v>
+        <v>0.275312372770848</v>
       </c>
       <c r="G6" t="n">
-        <v>1.171024947842299</v>
+        <v>1.846748152416652</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6568254659074375</v>
+        <v>1.209912615967076</v>
       </c>
       <c r="I6" t="n">
-        <v>0.005642267085096729</v>
+        <v>0.470894949950137</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07110686919927785</v>
+        <v>1.342472816420103</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04288617594409499</v>
+        <v>0.5247021753059996</v>
       </c>
       <c r="L6" t="n">
-        <v>1.028278579369704</v>
+        <v>0.9099360866422004</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04356159034476662</v>
+        <v>0.5329657100573232</v>
       </c>
       <c r="N6" t="n">
-        <v>142.5968229761748</v>
+        <v>36.57969784995613</v>
       </c>
       <c r="O6" t="n">
-        <v>283.9319955193913</v>
+        <v>73.54428143818195</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_8</t>
+          <t>model_1_10_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9995540288028251</v>
+        <v>0.9335167009961259</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8247297161644218</v>
+        <v>0.7233404205461464</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8160603714395587</v>
+        <v>0.6634679860375869</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9991067118941123</v>
+        <v>0.8608121138158487</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001856367014259116</v>
+        <v>0.2767385069971374</v>
       </c>
       <c r="G7" t="n">
-        <v>1.17203319505396</v>
+        <v>1.850023881708147</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6579413859282375</v>
+        <v>1.203755500696221</v>
       </c>
       <c r="I7" t="n">
-        <v>0.006120504615281261</v>
+        <v>0.4674475253878768</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06944430515723243</v>
+        <v>1.34094885556208</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04308557779883097</v>
+        <v>0.5260594139421301</v>
       </c>
       <c r="L7" t="n">
-        <v>1.028542156619196</v>
+        <v>0.909469550292597</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04376413257938596</v>
+        <v>0.5343443238452318</v>
       </c>
       <c r="N7" t="n">
-        <v>142.5782678388307</v>
+        <v>36.5693644734427</v>
       </c>
       <c r="O7" t="n">
-        <v>283.9134403820472</v>
+        <v>73.53394806166853</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_9</t>
+          <t>model_1_10_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9995550937270524</v>
+        <v>0.9333944395458613</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8246744284999026</v>
+        <v>0.7231696998859775</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8159601633046298</v>
+        <v>0.6640461532872075</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9990937443567864</v>
+        <v>0.8611500653390887</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00185193423873285</v>
+        <v>0.2772474235478576</v>
       </c>
       <c r="G8" t="n">
-        <v>1.172402903921177</v>
+        <v>1.851165491548793</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6582998246164764</v>
+        <v>1.201687429968392</v>
       </c>
       <c r="I8" t="n">
-        <v>0.006209353746405382</v>
+        <v>0.4663125515940325</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06790592675917112</v>
+        <v>1.340434971609061</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04303410552960117</v>
+        <v>0.5265428981078917</v>
       </c>
       <c r="L8" t="n">
-        <v>1.028474001468645</v>
+        <v>0.909303066615641</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04371184967336919</v>
+        <v>0.5348354224032973</v>
       </c>
       <c r="N8" t="n">
-        <v>142.5830493032644</v>
+        <v>36.56568989135806</v>
       </c>
       <c r="O8" t="n">
-        <v>283.9182218464808</v>
+        <v>73.53027347958388</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_3</t>
+          <t>model_1_10_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9994541710491578</v>
+        <v>0.9332677116251819</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8246660494275893</v>
+        <v>0.7229951638152728</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8166593900749903</v>
+        <v>0.6646269085536707</v>
       </c>
       <c r="E9" t="n">
-        <v>0.999314899094809</v>
+        <v>0.8614855403040512</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002272027579784683</v>
+        <v>0.27777493190092</v>
       </c>
       <c r="G9" t="n">
-        <v>1.172458934816318</v>
+        <v>1.852332615057259</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6557987310023943</v>
+        <v>1.199610102054378</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00469407711187172</v>
+        <v>0.4651858950544409</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09207680769625055</v>
+        <v>1.339922009303198</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04766579045588862</v>
+        <v>0.5270435768519715</v>
       </c>
       <c r="L9" t="n">
-        <v>1.034933052853901</v>
+        <v>0.9091305009364179</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04841647900725937</v>
+        <v>0.5353439863371011</v>
       </c>
       <c r="N9" t="n">
-        <v>142.1741652784143</v>
+        <v>36.56188818134247</v>
       </c>
       <c r="O9" t="n">
-        <v>283.5093378216308</v>
+        <v>73.52647176956829</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_4</t>
+          <t>model_1_10_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9994570131728495</v>
+        <v>0.9331369830071793</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8246226000767977</v>
+        <v>0.7228167043215152</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8165883412994144</v>
+        <v>0.6652097383105665</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9993059198775959</v>
+        <v>0.8618185763637254</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002260197164042391</v>
+        <v>0.2783190932633954</v>
       </c>
       <c r="G10" t="n">
-        <v>1.172749480825127</v>
+        <v>1.853525974513746</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6560528683529849</v>
+        <v>1.197525353808372</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00475559963750742</v>
+        <v>0.4640674293155928</v>
       </c>
       <c r="J10" t="n">
-        <v>0.09133433366739388</v>
+        <v>1.339400613351547</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04754153093919454</v>
+        <v>0.527559563711431</v>
       </c>
       <c r="L10" t="n">
-        <v>1.034751156937631</v>
+        <v>0.9089524874991377</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0482902625273913</v>
+        <v>0.5358680994737995</v>
       </c>
       <c r="N10" t="n">
-        <v>142.1846064575529</v>
+        <v>36.55797401207226</v>
       </c>
       <c r="O10" t="n">
-        <v>283.5197790007693</v>
+        <v>73.52255760029807</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_5</t>
+          <t>model_1_10_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9994956065054479</v>
+        <v>0.9327177996384672</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8241577233661675</v>
+        <v>0.7222566714747971</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8158746637065957</v>
+        <v>0.6669705678902047</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9992124638602065</v>
+        <v>0.8628012875924994</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002099551386781927</v>
+        <v>0.2800639552265274</v>
       </c>
       <c r="G11" t="n">
-        <v>1.175858113529671</v>
+        <v>1.857270916738465</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6586056517210926</v>
+        <v>1.191226968500772</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00539592830861288</v>
+        <v>0.4607670994905281</v>
       </c>
       <c r="J11" t="n">
-        <v>0.08056796297750608</v>
+        <v>1.337817892260938</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04582086191661967</v>
+        <v>0.529210690771197</v>
       </c>
       <c r="L11" t="n">
-        <v>1.032281183651335</v>
+        <v>0.9083816846140831</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04654249468774885</v>
+        <v>0.5375452301342353</v>
       </c>
       <c r="N11" t="n">
-        <v>142.3320631648317</v>
+        <v>36.54547458074303</v>
       </c>
       <c r="O11" t="n">
-        <v>283.6672357080481</v>
+        <v>73.51005816896885</v>
       </c>
     </row>
   </sheetData>
